--- a/test/list.xlsx
+++ b/test/list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dante\Desktop\dates\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8771AA20-E17A-4153-99C4-99F0D2284974}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B64C9638-5B82-4642-89DB-351EAA98B70C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="28080" windowHeight="17940" xr2:uid="{34D9E79F-F477-472A-9221-F5BC05282977}"/>
   </bookViews>
@@ -635,39 +635,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
@@ -689,6 +656,39 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1031,7 +1031,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
+      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1041,51 +1041,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40" t="s">
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="41"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="52"/>
       <c r="L1" s="19"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="48"/>
-      <c r="B2" s="42" t="s">
+      <c r="A2" s="37"/>
+      <c r="B2" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="37" t="s">
+      <c r="C2" s="48"/>
+      <c r="D2" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="38"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="32" t="s">
+      <c r="E2" s="50"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="33"/>
-      <c r="I2" s="34" t="s">
+      <c r="H2" s="43"/>
+      <c r="I2" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="34"/>
-      <c r="K2" s="35"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="45"/>
     </row>
     <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="32" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -1117,78 +1117,78 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="44"/>
+      <c r="B4" s="33"/>
       <c r="C4" s="5"/>
       <c r="D4" s="27"/>
       <c r="E4" s="4"/>
       <c r="F4" s="12"/>
       <c r="G4" s="18">
-        <v>45670</v>
+        <v>36892</v>
       </c>
       <c r="H4" s="29">
-        <v>45670</v>
+        <v>37289</v>
       </c>
       <c r="I4" s="18">
-        <v>45670</v>
+        <v>37683</v>
       </c>
       <c r="J4" s="25">
-        <v>45670</v>
+        <v>38081</v>
       </c>
       <c r="K4" s="30">
-        <v>45670</v>
+        <v>38477</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="51" t="s">
+      <c r="A5" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="45"/>
+      <c r="B5" s="34"/>
       <c r="C5" s="7"/>
       <c r="D5" s="9"/>
       <c r="E5" s="6"/>
       <c r="F5" s="13"/>
       <c r="G5" s="9">
-        <v>45670</v>
+        <v>36892</v>
       </c>
       <c r="H5" s="10">
-        <v>45670</v>
+        <v>37289</v>
       </c>
       <c r="I5" s="8">
-        <v>45670</v>
+        <v>37683</v>
       </c>
       <c r="J5" s="6">
-        <v>45670</v>
+        <v>38081</v>
       </c>
       <c r="K5" s="10">
-        <v>45670</v>
+        <v>38477</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="52" t="s">
+      <c r="A6" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="46"/>
+      <c r="B6" s="35"/>
       <c r="C6" s="20"/>
       <c r="D6" s="28"/>
       <c r="E6" s="22"/>
       <c r="F6" s="23"/>
       <c r="G6" s="28">
-        <v>45670</v>
+        <v>36892</v>
       </c>
       <c r="H6" s="31">
-        <v>45670</v>
+        <v>37289</v>
       </c>
       <c r="I6" s="21">
-        <v>45670</v>
+        <v>37683</v>
       </c>
       <c r="J6" s="22">
-        <v>45670</v>
+        <v>38081</v>
       </c>
       <c r="K6" s="31">
-        <v>45670</v>
+        <v>38477</v>
       </c>
     </row>
   </sheetData>

--- a/test/list.xlsx
+++ b/test/list.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dante\Desktop\dates\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\60-ampri\dates\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B64C9638-5B82-4642-89DB-351EAA98B70C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{312D8ABA-7E3F-4CBD-9F19-65E5ADA94275}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="28080" windowHeight="17940" xr2:uid="{34D9E79F-F477-472A-9221-F5BC05282977}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="List" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">List!$A$3:$F$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">List!$A$3:$F$7</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>test.xlsx</t>
   </si>
@@ -96,6 +96,9 @@
   </si>
   <si>
     <t>Path</t>
+  </si>
+  <si>
+    <t>test.xls</t>
   </si>
 </sst>
 </file>
@@ -1027,11 +1030,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
+      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1166,28 +1169,53 @@
         <v>38477</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="41" t="s">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="34"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="9">
+        <v>36892</v>
+      </c>
+      <c r="H6" s="10">
+        <v>37289</v>
+      </c>
+      <c r="I6" s="8">
+        <v>37683</v>
+      </c>
+      <c r="J6" s="6">
+        <v>38081</v>
+      </c>
+      <c r="K6" s="10">
+        <v>38477</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="35"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="28">
+      <c r="B7" s="35"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="28">
         <v>36892</v>
       </c>
-      <c r="H6" s="31">
+      <c r="H7" s="31">
         <v>37289</v>
       </c>
-      <c r="I6" s="21">
+      <c r="I7" s="21">
         <v>37683</v>
       </c>
-      <c r="J6" s="22">
+      <c r="J7" s="22">
         <v>38081</v>
       </c>
-      <c r="K6" s="31">
+      <c r="K7" s="31">
         <v>38477</v>
       </c>
     </row>
